--- a/HW6/MetricsCalc/MetricsCalc.xlsx
+++ b/HW6/MetricsCalc/MetricsCalc.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fayzullinmr/Desktop/MIPT/ML/CV_ABBYY/HW6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fayzullinmr/Desktop/MIPT/ML/CV_ABBYY/HW6/MetricsCalc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80F736D2-FEF6-A24B-9001-A5654F5516A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B77A5E4-5782-9742-BF71-F79AB28C0430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="2300" windowWidth="27640" windowHeight="16940" xr2:uid="{48B25FC1-EA21-0C42-B4E2-82DF4FE0A09A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="11">
   <si>
     <t>TP</t>
   </si>
@@ -67,6 +67,9 @@
   <si>
     <t>SET</t>
   </si>
+  <si>
+    <t>Index</t>
+  </si>
 </sst>
 </file>
 
@@ -81,12 +84,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -101,11 +110,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,18 +430,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D85AE5C-378C-994A-B794-BFE78595CFFE}">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:AE156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+    <sheetView tabSelected="1" topLeftCell="Q123" workbookViewId="0">
+      <selection activeCell="AI148" sqref="AI148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="1" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" style="2"/>
+    <col min="17" max="18" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="4.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -456,8 +486,62 @@
       <c r="I1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -482,8 +566,62 @@
       <c r="I2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>3</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2">
+        <v>3</v>
+      </c>
+      <c r="S2">
+        <v>3</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="V2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2">
+        <v>3</v>
+      </c>
+      <c r="X2">
+        <v>2</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2">
+        <v>1</v>
+      </c>
+      <c r="AC2">
+        <v>3</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>3</v>
       </c>
@@ -502,8 +640,50 @@
       <c r="I3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>3</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>3</v>
+      </c>
+      <c r="X3">
+        <v>3</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>2</v>
+      </c>
+      <c r="AC3">
+        <v>3</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -528,8 +708,62 @@
       <c r="I4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4">
+        <v>3</v>
+      </c>
+      <c r="S4">
+        <v>3</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="V4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W4">
+        <v>3</v>
+      </c>
+      <c r="X4">
+        <v>3</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB4">
+        <v>3</v>
+      </c>
+      <c r="AC4">
+        <v>3</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -554,8 +788,62 @@
       <c r="I5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K5" s="1">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>3</v>
+      </c>
+      <c r="S5">
+        <v>3</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <v>2</v>
+      </c>
+      <c r="W5">
+        <v>3</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB5">
+        <v>4</v>
+      </c>
+      <c r="AC5">
+        <v>3</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>3</v>
       </c>
@@ -574,8 +862,50 @@
       <c r="I6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>3</v>
+      </c>
+      <c r="S6">
+        <v>3</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>3</v>
+      </c>
+      <c r="X6">
+        <v>3</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>5</v>
+      </c>
+      <c r="AC6">
+        <v>3</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>3</v>
       </c>
@@ -594,8 +924,50 @@
       <c r="I7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L7">
+        <v>6</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>3</v>
+      </c>
+      <c r="S7">
+        <v>3</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>3</v>
+      </c>
+      <c r="X7">
+        <v>3</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>6</v>
+      </c>
+      <c r="AC7">
+        <v>3</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>3</v>
       </c>
@@ -614,8 +986,50 @@
       <c r="I8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L8">
+        <v>7</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>3</v>
+      </c>
+      <c r="S8">
+        <v>3</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>3</v>
+      </c>
+      <c r="X8">
+        <v>3</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>7</v>
+      </c>
+      <c r="AC8">
+        <v>3</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>3</v>
       </c>
@@ -634,8 +1048,50 @@
       <c r="I9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L9">
+        <v>8</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>3</v>
+      </c>
+      <c r="S9">
+        <v>3</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>3</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>8</v>
+      </c>
+      <c r="AC9">
+        <v>3</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>3</v>
       </c>
@@ -654,8 +1110,50 @@
       <c r="I10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L10">
+        <v>9</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>3</v>
+      </c>
+      <c r="S10">
+        <v>3</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>3</v>
+      </c>
+      <c r="X10">
+        <v>3</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>9</v>
+      </c>
+      <c r="AC10">
+        <v>3</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>3</v>
       </c>
@@ -674,8 +1172,50 @@
       <c r="I11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L11">
+        <v>10</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>3</v>
+      </c>
+      <c r="S11">
+        <v>3</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>3</v>
+      </c>
+      <c r="X11">
+        <v>3</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>10</v>
+      </c>
+      <c r="AC11">
+        <v>3</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>3</v>
       </c>
@@ -694,8 +1234,50 @@
       <c r="I12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L12">
+        <v>11</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>3</v>
+      </c>
+      <c r="S12">
+        <v>3</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>3</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>11</v>
+      </c>
+      <c r="AC12">
+        <v>3</v>
+      </c>
+      <c r="AD12">
+        <v>3</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>3</v>
       </c>
@@ -714,8 +1296,50 @@
       <c r="I13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L13">
+        <v>12</v>
+      </c>
+      <c r="M13">
+        <v>6</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>3</v>
+      </c>
+      <c r="S13">
+        <v>3</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>6</v>
+      </c>
+      <c r="X13">
+        <v>6</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>12</v>
+      </c>
+      <c r="AC13">
+        <v>6</v>
+      </c>
+      <c r="AD13">
+        <v>3</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>3</v>
       </c>
@@ -734,8 +1358,50 @@
       <c r="I14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L14">
+        <v>13</v>
+      </c>
+      <c r="M14">
+        <v>3</v>
+      </c>
+      <c r="N14">
+        <v>3</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>3</v>
+      </c>
+      <c r="S14">
+        <v>3</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>3</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>13</v>
+      </c>
+      <c r="AC14">
+        <v>3</v>
+      </c>
+      <c r="AD14">
+        <v>3</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>3</v>
       </c>
@@ -754,8 +1420,50 @@
       <c r="I15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L15">
+        <v>14</v>
+      </c>
+      <c r="M15">
+        <v>3</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>3</v>
+      </c>
+      <c r="S15">
+        <v>3</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>3</v>
+      </c>
+      <c r="X15">
+        <v>3</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>14</v>
+      </c>
+      <c r="AC15">
+        <v>3</v>
+      </c>
+      <c r="AD15">
+        <v>3</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>3</v>
       </c>
@@ -774,8 +1482,50 @@
       <c r="I16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L16">
+        <v>15</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>3</v>
+      </c>
+      <c r="S16">
+        <v>3</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>3</v>
+      </c>
+      <c r="X16">
+        <v>3</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>15</v>
+      </c>
+      <c r="AC16">
+        <v>3</v>
+      </c>
+      <c r="AD16">
+        <v>3</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>3</v>
       </c>
@@ -794,8 +1544,50 @@
       <c r="I17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L17">
+        <v>16</v>
+      </c>
+      <c r="M17">
+        <v>3</v>
+      </c>
+      <c r="N17">
+        <v>2</v>
+      </c>
+      <c r="O17">
+        <v>3</v>
+      </c>
+      <c r="R17">
+        <v>3</v>
+      </c>
+      <c r="S17">
+        <v>3</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>3</v>
+      </c>
+      <c r="X17">
+        <v>3</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>16</v>
+      </c>
+      <c r="AC17">
+        <v>3</v>
+      </c>
+      <c r="AD17">
+        <v>3</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>3</v>
       </c>
@@ -814,8 +1606,50 @@
       <c r="I18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L18">
+        <v>17</v>
+      </c>
+      <c r="M18">
+        <v>3</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>3</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>3</v>
+      </c>
+      <c r="X18">
+        <v>3</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>17</v>
+      </c>
+      <c r="AC18">
+        <v>3</v>
+      </c>
+      <c r="AD18">
+        <v>3</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>3</v>
       </c>
@@ -834,8 +1668,50 @@
       <c r="I19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L19">
+        <v>18</v>
+      </c>
+      <c r="M19">
+        <v>3</v>
+      </c>
+      <c r="N19">
+        <v>3</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>3</v>
+      </c>
+      <c r="S19">
+        <v>3</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>3</v>
+      </c>
+      <c r="X19">
+        <v>2</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>18</v>
+      </c>
+      <c r="AC19">
+        <v>3</v>
+      </c>
+      <c r="AD19">
+        <v>3</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>3</v>
       </c>
@@ -854,8 +1730,50 @@
       <c r="I20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L20">
+        <v>19</v>
+      </c>
+      <c r="M20">
+        <v>3</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>3</v>
+      </c>
+      <c r="S20">
+        <v>3</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>3</v>
+      </c>
+      <c r="X20">
+        <v>3</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>19</v>
+      </c>
+      <c r="AC20">
+        <v>3</v>
+      </c>
+      <c r="AD20">
+        <v>2</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>3</v>
       </c>
@@ -874,8 +1792,50 @@
       <c r="I21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L21">
+        <v>20</v>
+      </c>
+      <c r="M21">
+        <v>3</v>
+      </c>
+      <c r="N21">
+        <v>3</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>3</v>
+      </c>
+      <c r="S21">
+        <v>3</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>3</v>
+      </c>
+      <c r="X21">
+        <v>3</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>20</v>
+      </c>
+      <c r="AC21">
+        <v>3</v>
+      </c>
+      <c r="AD21">
+        <v>3</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>3</v>
       </c>
@@ -894,8 +1854,50 @@
       <c r="I22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L22">
+        <v>21</v>
+      </c>
+      <c r="M22">
+        <v>3</v>
+      </c>
+      <c r="N22">
+        <v>3</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>3</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>3</v>
+      </c>
+      <c r="X22">
+        <v>2</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>21</v>
+      </c>
+      <c r="AC22">
+        <v>3</v>
+      </c>
+      <c r="AD22">
+        <v>3</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>3</v>
       </c>
@@ -914,8 +1916,50 @@
       <c r="I23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L23">
+        <v>22</v>
+      </c>
+      <c r="M23">
+        <v>3</v>
+      </c>
+      <c r="N23">
+        <v>3</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>3</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>3</v>
+      </c>
+      <c r="X23">
+        <v>3</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>22</v>
+      </c>
+      <c r="AC23">
+        <v>3</v>
+      </c>
+      <c r="AD23">
+        <v>3</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>3</v>
       </c>
@@ -934,8 +1978,50 @@
       <c r="I24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L24">
+        <v>23</v>
+      </c>
+      <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
+      </c>
+      <c r="O24">
+        <v>3</v>
+      </c>
+      <c r="R24">
+        <v>3</v>
+      </c>
+      <c r="S24">
+        <v>3</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>3</v>
+      </c>
+      <c r="X24">
+        <v>3</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>23</v>
+      </c>
+      <c r="AC24">
+        <v>3</v>
+      </c>
+      <c r="AD24">
+        <v>3</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>3</v>
       </c>
@@ -954,8 +2040,50 @@
       <c r="I25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L25">
+        <v>24</v>
+      </c>
+      <c r="M25">
+        <v>30</v>
+      </c>
+      <c r="N25">
+        <v>3</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>3</v>
+      </c>
+      <c r="S25">
+        <v>3</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>3</v>
+      </c>
+      <c r="X25">
+        <v>3</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>24</v>
+      </c>
+      <c r="AC25">
+        <v>30</v>
+      </c>
+      <c r="AD25">
+        <v>3</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>3</v>
       </c>
@@ -974,8 +2102,50 @@
       <c r="I26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L26">
+        <v>25</v>
+      </c>
+      <c r="M26">
+        <v>3</v>
+      </c>
+      <c r="N26">
+        <v>3</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>3</v>
+      </c>
+      <c r="S26">
+        <v>2</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>3</v>
+      </c>
+      <c r="X26">
+        <v>3</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>25</v>
+      </c>
+      <c r="AC26">
+        <v>3</v>
+      </c>
+      <c r="AD26">
+        <v>3</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>3</v>
       </c>
@@ -994,8 +2164,50 @@
       <c r="I27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L27">
+        <v>26</v>
+      </c>
+      <c r="M27">
+        <v>3</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>3</v>
+      </c>
+      <c r="R27">
+        <v>3</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>3</v>
+      </c>
+      <c r="X27">
+        <v>3</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>26</v>
+      </c>
+      <c r="AC27">
+        <v>3</v>
+      </c>
+      <c r="AD27">
+        <v>3</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>3</v>
       </c>
@@ -1014,8 +2226,50 @@
       <c r="I28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L28">
+        <v>27</v>
+      </c>
+      <c r="M28">
+        <v>3</v>
+      </c>
+      <c r="N28">
+        <v>3</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>3</v>
+      </c>
+      <c r="S28">
+        <v>2</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>3</v>
+      </c>
+      <c r="X28">
+        <v>3</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>27</v>
+      </c>
+      <c r="AC28">
+        <v>3</v>
+      </c>
+      <c r="AD28">
+        <v>3</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>3</v>
       </c>
@@ -1034,8 +2288,50 @@
       <c r="I29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L29">
+        <v>28</v>
+      </c>
+      <c r="M29">
+        <v>3</v>
+      </c>
+      <c r="N29">
+        <v>3</v>
+      </c>
+      <c r="O29">
+        <v>2</v>
+      </c>
+      <c r="R29">
+        <v>3</v>
+      </c>
+      <c r="S29">
+        <v>2</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>3</v>
+      </c>
+      <c r="X29">
+        <v>3</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>28</v>
+      </c>
+      <c r="AC29">
+        <v>3</v>
+      </c>
+      <c r="AD29">
+        <v>3</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>3</v>
       </c>
@@ -1054,8 +2350,50 @@
       <c r="I30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L30">
+        <v>29</v>
+      </c>
+      <c r="M30">
+        <v>3</v>
+      </c>
+      <c r="N30">
+        <v>3</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>3</v>
+      </c>
+      <c r="S30">
+        <v>2</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>3</v>
+      </c>
+      <c r="X30">
+        <v>3</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>29</v>
+      </c>
+      <c r="AC30">
+        <v>3</v>
+      </c>
+      <c r="AD30">
+        <v>3</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>3</v>
       </c>
@@ -1074,8 +2412,50 @@
       <c r="I31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L31">
+        <v>30</v>
+      </c>
+      <c r="M31">
+        <v>3</v>
+      </c>
+      <c r="N31">
+        <v>3</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>3</v>
+      </c>
+      <c r="S31">
+        <v>3</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>3</v>
+      </c>
+      <c r="X31">
+        <v>3</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>30</v>
+      </c>
+      <c r="AC31">
+        <v>3</v>
+      </c>
+      <c r="AD31">
+        <v>3</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>3</v>
       </c>
@@ -1094,8 +2474,50 @@
       <c r="I32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L32">
+        <v>31</v>
+      </c>
+      <c r="M32">
+        <v>3</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>3</v>
+      </c>
+      <c r="R32">
+        <v>3</v>
+      </c>
+      <c r="S32">
+        <v>2</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>3</v>
+      </c>
+      <c r="X32">
+        <v>2</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>31</v>
+      </c>
+      <c r="AC32">
+        <v>3</v>
+      </c>
+      <c r="AD32">
+        <v>3</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>3</v>
       </c>
@@ -1114,8 +2536,50 @@
       <c r="I33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L33">
+        <v>32</v>
+      </c>
+      <c r="M33">
+        <v>3</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>3</v>
+      </c>
+      <c r="S33">
+        <v>3</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>3</v>
+      </c>
+      <c r="X33">
+        <v>3</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>32</v>
+      </c>
+      <c r="AC33">
+        <v>3</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>3</v>
       </c>
@@ -1134,8 +2598,50 @@
       <c r="I34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L34">
+        <v>33</v>
+      </c>
+      <c r="M34">
+        <v>3</v>
+      </c>
+      <c r="N34">
+        <v>3</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>3</v>
+      </c>
+      <c r="S34">
+        <v>3</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>3</v>
+      </c>
+      <c r="X34">
+        <v>3</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>33</v>
+      </c>
+      <c r="AC34">
+        <v>3</v>
+      </c>
+      <c r="AD34">
+        <v>3</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>3</v>
       </c>
@@ -1154,8 +2660,50 @@
       <c r="I35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L35">
+        <v>34</v>
+      </c>
+      <c r="M35">
+        <v>3</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>3</v>
+      </c>
+      <c r="S35">
+        <v>3</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>3</v>
+      </c>
+      <c r="X35">
+        <v>2</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>34</v>
+      </c>
+      <c r="AC35">
+        <v>3</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>3</v>
       </c>
@@ -1174,8 +2722,50 @@
       <c r="I36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L36">
+        <v>35</v>
+      </c>
+      <c r="M36">
+        <v>3</v>
+      </c>
+      <c r="N36">
+        <v>3</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="R36">
+        <v>3</v>
+      </c>
+      <c r="S36">
+        <v>3</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>3</v>
+      </c>
+      <c r="X36">
+        <v>2</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>35</v>
+      </c>
+      <c r="AC36">
+        <v>3</v>
+      </c>
+      <c r="AD36">
+        <v>3</v>
+      </c>
+      <c r="AE36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>3</v>
       </c>
@@ -1194,8 +2784,50 @@
       <c r="I37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L37">
+        <v>36</v>
+      </c>
+      <c r="M37">
+        <v>3</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>3</v>
+      </c>
+      <c r="S37">
+        <v>3</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>3</v>
+      </c>
+      <c r="X37">
+        <v>3</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>36</v>
+      </c>
+      <c r="AC37">
+        <v>3</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>3</v>
       </c>
@@ -1214,8 +2846,50 @@
       <c r="I38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L38">
+        <v>37</v>
+      </c>
+      <c r="M38">
+        <v>3</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>3</v>
+      </c>
+      <c r="R38">
+        <v>3</v>
+      </c>
+      <c r="S38">
+        <v>2</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>3</v>
+      </c>
+      <c r="X38">
+        <v>3</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>37</v>
+      </c>
+      <c r="AC38">
+        <v>3</v>
+      </c>
+      <c r="AD38">
+        <v>3</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>3</v>
       </c>
@@ -1234,8 +2908,50 @@
       <c r="I39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L39">
+        <v>38</v>
+      </c>
+      <c r="M39">
+        <v>3</v>
+      </c>
+      <c r="N39">
+        <v>2</v>
+      </c>
+      <c r="O39">
+        <v>3</v>
+      </c>
+      <c r="R39">
+        <v>3</v>
+      </c>
+      <c r="S39">
+        <v>3</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>3</v>
+      </c>
+      <c r="X39">
+        <v>3</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>38</v>
+      </c>
+      <c r="AC39">
+        <v>3</v>
+      </c>
+      <c r="AD39">
+        <v>3</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>6</v>
       </c>
@@ -1254,8 +2970,50 @@
       <c r="I40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L40">
+        <v>39</v>
+      </c>
+      <c r="M40">
+        <v>3</v>
+      </c>
+      <c r="N40">
+        <v>3</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>6</v>
+      </c>
+      <c r="S40">
+        <v>6</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>3</v>
+      </c>
+      <c r="X40">
+        <v>3</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>39</v>
+      </c>
+      <c r="AC40">
+        <v>3</v>
+      </c>
+      <c r="AD40">
+        <v>3</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>3</v>
       </c>
@@ -1274,8 +3032,50 @@
       <c r="I41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L41">
+        <v>40</v>
+      </c>
+      <c r="M41">
+        <v>3</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>3</v>
+      </c>
+      <c r="R41">
+        <v>3</v>
+      </c>
+      <c r="S41">
+        <v>3</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>3</v>
+      </c>
+      <c r="X41">
+        <v>2</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>40</v>
+      </c>
+      <c r="AC41">
+        <v>3</v>
+      </c>
+      <c r="AD41">
+        <v>3</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>3</v>
       </c>
@@ -1294,8 +3094,50 @@
       <c r="I42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L42">
+        <v>41</v>
+      </c>
+      <c r="M42">
+        <v>3</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>3</v>
+      </c>
+      <c r="R42">
+        <v>3</v>
+      </c>
+      <c r="S42">
+        <v>3</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>3</v>
+      </c>
+      <c r="X42">
+        <v>3</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>41</v>
+      </c>
+      <c r="AC42">
+        <v>3</v>
+      </c>
+      <c r="AD42">
+        <v>3</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>3</v>
       </c>
@@ -1314,8 +3156,50 @@
       <c r="I43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L43">
+        <v>42</v>
+      </c>
+      <c r="M43">
+        <v>3</v>
+      </c>
+      <c r="N43">
+        <v>3</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>3</v>
+      </c>
+      <c r="S43">
+        <v>3</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>3</v>
+      </c>
+      <c r="X43">
+        <v>3</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>42</v>
+      </c>
+      <c r="AC43">
+        <v>3</v>
+      </c>
+      <c r="AD43">
+        <v>3</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>3</v>
       </c>
@@ -1334,8 +3218,50 @@
       <c r="I44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L44">
+        <v>43</v>
+      </c>
+      <c r="M44">
+        <v>3</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>3</v>
+      </c>
+      <c r="R44">
+        <v>3</v>
+      </c>
+      <c r="S44">
+        <v>3</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>3</v>
+      </c>
+      <c r="X44">
+        <v>2</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>43</v>
+      </c>
+      <c r="AC44">
+        <v>3</v>
+      </c>
+      <c r="AD44">
+        <v>3</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>3</v>
       </c>
@@ -1354,8 +3280,50 @@
       <c r="I45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L45">
+        <v>44</v>
+      </c>
+      <c r="M45">
+        <v>3</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="R45">
+        <v>3</v>
+      </c>
+      <c r="S45">
+        <v>3</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>3</v>
+      </c>
+      <c r="X45">
+        <v>3</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>44</v>
+      </c>
+      <c r="AC45">
+        <v>3</v>
+      </c>
+      <c r="AD45">
+        <v>1</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>3</v>
       </c>
@@ -1374,8 +3342,50 @@
       <c r="I46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L46">
+        <v>45</v>
+      </c>
+      <c r="M46">
+        <v>3</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>3</v>
+      </c>
+      <c r="S46">
+        <v>3</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>3</v>
+      </c>
+      <c r="X46">
+        <v>2</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>45</v>
+      </c>
+      <c r="AC46">
+        <v>3</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>3</v>
       </c>
@@ -1394,8 +3404,50 @@
       <c r="I47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L47">
+        <v>46</v>
+      </c>
+      <c r="M47">
+        <v>3</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>3</v>
+      </c>
+      <c r="S47">
+        <v>3</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>3</v>
+      </c>
+      <c r="X47">
+        <v>3</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <v>46</v>
+      </c>
+      <c r="AC47">
+        <v>3</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>3</v>
       </c>
@@ -1414,8 +3466,50 @@
       <c r="I48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L48">
+        <v>47</v>
+      </c>
+      <c r="M48">
+        <v>3</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>3</v>
+      </c>
+      <c r="R48">
+        <v>3</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>3</v>
+      </c>
+      <c r="X48">
+        <v>2</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>47</v>
+      </c>
+      <c r="AC48">
+        <v>3</v>
+      </c>
+      <c r="AD48">
+        <v>3</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
       <c r="G49">
         <v>3</v>
       </c>
@@ -1425,8 +3519,67 @@
       <c r="I49">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L49">
+        <v>48</v>
+      </c>
+      <c r="M49">
+        <v>3</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>3</v>
+      </c>
+      <c r="W49">
+        <v>3</v>
+      </c>
+      <c r="X49">
+        <v>2</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>48</v>
+      </c>
+      <c r="AC49">
+        <v>3</v>
+      </c>
+      <c r="AD49">
+        <v>3</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="L50">
+        <v>49</v>
+      </c>
+      <c r="M50">
+        <v>3</v>
+      </c>
+      <c r="N50">
+        <v>3</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>49</v>
+      </c>
+      <c r="AC50">
+        <v>3</v>
+      </c>
+      <c r="AD50">
+        <v>3</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>3</v>
       </c>
@@ -1454,8 +3607,59 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L51">
+        <v>50</v>
+      </c>
+      <c r="M51">
+        <v>3</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>3</v>
+      </c>
+      <c r="R51">
+        <f>SUM(R2:R48)</f>
+        <v>144</v>
+      </c>
+      <c r="S51">
+        <f t="shared" ref="S51:T51" si="2">SUM(S2:S48)</f>
+        <v>125</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <f>SUM(W2:W49)</f>
+        <v>147</v>
+      </c>
+      <c r="X51">
+        <f t="shared" ref="X51:Y51" si="3">SUM(X2:X49)</f>
+        <v>126</v>
+      </c>
+      <c r="Y51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>50</v>
+      </c>
+      <c r="AC51">
+        <v>3</v>
+      </c>
+      <c r="AD51">
+        <v>3</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -1467,8 +3671,43 @@
         <f>H51+I51</f>
         <v>134</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L52">
+        <v>51</v>
+      </c>
+      <c r="M52">
+        <v>3</v>
+      </c>
+      <c r="N52">
+        <v>3</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>7</v>
+      </c>
+      <c r="R52">
+        <f>S51+T51</f>
+        <v>125</v>
+      </c>
+      <c r="W52">
+        <f>X51+Y51</f>
+        <v>126</v>
+      </c>
+      <c r="AB52">
+        <v>51</v>
+      </c>
+      <c r="AC52">
+        <v>3</v>
+      </c>
+      <c r="AD52">
+        <v>3</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -1480,8 +3719,43 @@
         <f>H51/G52</f>
         <v>0.94029850746268662</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L53">
+        <v>52</v>
+      </c>
+      <c r="M53">
+        <v>3</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>6</v>
+      </c>
+      <c r="R53">
+        <f>S51/R52</f>
+        <v>1</v>
+      </c>
+      <c r="W53">
+        <f>X51/W52</f>
+        <v>1</v>
+      </c>
+      <c r="AB53">
+        <v>52</v>
+      </c>
+      <c r="AC53">
+        <v>3</v>
+      </c>
+      <c r="AD53">
+        <v>2</v>
+      </c>
+      <c r="AE53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -1492,6 +3766,2643 @@
       <c r="G54">
         <f>H51/G51</f>
         <v>0.8571428571428571</v>
+      </c>
+      <c r="L54">
+        <v>53</v>
+      </c>
+      <c r="M54">
+        <v>3</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>2</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>8</v>
+      </c>
+      <c r="R54">
+        <f>S51/R51</f>
+        <v>0.86805555555555558</v>
+      </c>
+      <c r="W54">
+        <f>X51/W51</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="AB54">
+        <v>53</v>
+      </c>
+      <c r="AC54">
+        <v>3</v>
+      </c>
+      <c r="AD54">
+        <v>3</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="L55">
+        <v>54</v>
+      </c>
+      <c r="M55">
+        <v>3</v>
+      </c>
+      <c r="N55">
+        <v>3</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <v>54</v>
+      </c>
+      <c r="AC55">
+        <v>3</v>
+      </c>
+      <c r="AD55">
+        <v>3</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="L56">
+        <v>55</v>
+      </c>
+      <c r="M56">
+        <v>3</v>
+      </c>
+      <c r="N56">
+        <v>2</v>
+      </c>
+      <c r="O56">
+        <v>3</v>
+      </c>
+      <c r="AB56">
+        <v>55</v>
+      </c>
+      <c r="AC56">
+        <v>3</v>
+      </c>
+      <c r="AD56">
+        <v>3</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="L57">
+        <v>56</v>
+      </c>
+      <c r="M57">
+        <v>3</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="AB57">
+        <v>56</v>
+      </c>
+      <c r="AC57">
+        <v>3</v>
+      </c>
+      <c r="AD57">
+        <v>1</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="L58">
+        <v>57</v>
+      </c>
+      <c r="M58">
+        <v>3</v>
+      </c>
+      <c r="N58">
+        <v>3</v>
+      </c>
+      <c r="O58">
+        <v>3</v>
+      </c>
+      <c r="AB58">
+        <v>57</v>
+      </c>
+      <c r="AC58">
+        <v>3</v>
+      </c>
+      <c r="AD58">
+        <v>3</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="L59">
+        <v>58</v>
+      </c>
+      <c r="M59">
+        <v>3</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="AB59">
+        <v>58</v>
+      </c>
+      <c r="AC59">
+        <v>3</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="L60">
+        <v>59</v>
+      </c>
+      <c r="M60">
+        <v>3</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="AB60">
+        <v>59</v>
+      </c>
+      <c r="AC60">
+        <v>3</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="L61">
+        <v>60</v>
+      </c>
+      <c r="M61">
+        <v>3</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>2</v>
+      </c>
+      <c r="AB61">
+        <v>60</v>
+      </c>
+      <c r="AC61">
+        <v>3</v>
+      </c>
+      <c r="AD61">
+        <v>2</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="L62">
+        <v>61</v>
+      </c>
+      <c r="M62">
+        <v>3</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="AB62">
+        <v>61</v>
+      </c>
+      <c r="AC62">
+        <v>3</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="L63">
+        <v>62</v>
+      </c>
+      <c r="M63">
+        <v>3</v>
+      </c>
+      <c r="N63">
+        <v>2</v>
+      </c>
+      <c r="O63">
+        <v>3</v>
+      </c>
+      <c r="AB63">
+        <v>62</v>
+      </c>
+      <c r="AC63">
+        <v>3</v>
+      </c>
+      <c r="AD63">
+        <v>3</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="L64">
+        <v>63</v>
+      </c>
+      <c r="M64">
+        <v>3</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>2</v>
+      </c>
+      <c r="AB64">
+        <v>63</v>
+      </c>
+      <c r="AC64">
+        <v>3</v>
+      </c>
+      <c r="AD64">
+        <v>2</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L65">
+        <v>64</v>
+      </c>
+      <c r="M65">
+        <v>3</v>
+      </c>
+      <c r="N65">
+        <v>3</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="AB65">
+        <v>64</v>
+      </c>
+      <c r="AC65">
+        <v>3</v>
+      </c>
+      <c r="AD65">
+        <v>3</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L66">
+        <v>65</v>
+      </c>
+      <c r="M66">
+        <v>3</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="AB66">
+        <v>65</v>
+      </c>
+      <c r="AC66">
+        <v>3</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L67">
+        <v>66</v>
+      </c>
+      <c r="M67">
+        <v>3</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="AB67">
+        <v>66</v>
+      </c>
+      <c r="AC67">
+        <v>3</v>
+      </c>
+      <c r="AD67">
+        <v>1</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L68">
+        <v>67</v>
+      </c>
+      <c r="M68">
+        <v>3</v>
+      </c>
+      <c r="N68">
+        <v>3</v>
+      </c>
+      <c r="O68">
+        <v>2</v>
+      </c>
+      <c r="AB68">
+        <v>67</v>
+      </c>
+      <c r="AC68">
+        <v>3</v>
+      </c>
+      <c r="AD68">
+        <v>3</v>
+      </c>
+      <c r="AE68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L69">
+        <v>68</v>
+      </c>
+      <c r="M69">
+        <v>3</v>
+      </c>
+      <c r="N69">
+        <v>2</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="AB69">
+        <v>68</v>
+      </c>
+      <c r="AC69">
+        <v>3</v>
+      </c>
+      <c r="AD69">
+        <v>2</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L70">
+        <v>69</v>
+      </c>
+      <c r="M70">
+        <v>3</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>3</v>
+      </c>
+      <c r="AB70">
+        <v>69</v>
+      </c>
+      <c r="AC70">
+        <v>3</v>
+      </c>
+      <c r="AD70">
+        <v>3</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L71">
+        <v>70</v>
+      </c>
+      <c r="M71">
+        <v>3</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>1</v>
+      </c>
+      <c r="AB71">
+        <v>70</v>
+      </c>
+      <c r="AC71">
+        <v>3</v>
+      </c>
+      <c r="AD71">
+        <v>1</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L72">
+        <v>71</v>
+      </c>
+      <c r="M72">
+        <v>3</v>
+      </c>
+      <c r="N72">
+        <v>3</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="AB72">
+        <v>71</v>
+      </c>
+      <c r="AC72">
+        <v>3</v>
+      </c>
+      <c r="AD72">
+        <v>3</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L73">
+        <v>72</v>
+      </c>
+      <c r="M73">
+        <v>3</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>1</v>
+      </c>
+      <c r="AB73">
+        <v>72</v>
+      </c>
+      <c r="AC73">
+        <v>3</v>
+      </c>
+      <c r="AD73">
+        <v>1</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L74">
+        <v>73</v>
+      </c>
+      <c r="M74">
+        <v>3</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>3</v>
+      </c>
+      <c r="AB74">
+        <v>73</v>
+      </c>
+      <c r="AC74">
+        <v>3</v>
+      </c>
+      <c r="AD74">
+        <v>3</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L75">
+        <v>74</v>
+      </c>
+      <c r="M75">
+        <v>3</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="AB75">
+        <v>74</v>
+      </c>
+      <c r="AC75">
+        <v>3</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L76">
+        <v>75</v>
+      </c>
+      <c r="M76">
+        <v>3</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="AB76">
+        <v>75</v>
+      </c>
+      <c r="AC76">
+        <v>3</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L77">
+        <v>76</v>
+      </c>
+      <c r="M77">
+        <v>3</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="AB77">
+        <v>76</v>
+      </c>
+      <c r="AC77">
+        <v>3</v>
+      </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L78">
+        <v>77</v>
+      </c>
+      <c r="M78">
+        <v>3</v>
+      </c>
+      <c r="N78">
+        <v>2</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="AB78">
+        <v>77</v>
+      </c>
+      <c r="AC78">
+        <v>3</v>
+      </c>
+      <c r="AD78">
+        <v>2</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L79">
+        <v>78</v>
+      </c>
+      <c r="M79">
+        <v>3</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="AB79">
+        <v>78</v>
+      </c>
+      <c r="AC79">
+        <v>3</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L80">
+        <v>79</v>
+      </c>
+      <c r="M80">
+        <v>3</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>3</v>
+      </c>
+      <c r="AB80">
+        <v>79</v>
+      </c>
+      <c r="AC80">
+        <v>3</v>
+      </c>
+      <c r="AD80">
+        <v>3</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L81">
+        <v>80</v>
+      </c>
+      <c r="M81">
+        <v>3</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="AB81">
+        <v>80</v>
+      </c>
+      <c r="AC81">
+        <v>3</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L82">
+        <v>81</v>
+      </c>
+      <c r="M82">
+        <v>3</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>1</v>
+      </c>
+      <c r="AB82">
+        <v>81</v>
+      </c>
+      <c r="AC82">
+        <v>3</v>
+      </c>
+      <c r="AD82">
+        <v>1</v>
+      </c>
+      <c r="AE82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L83">
+        <v>82</v>
+      </c>
+      <c r="M83">
+        <v>3</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="AB83">
+        <v>82</v>
+      </c>
+      <c r="AC83">
+        <v>3</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L84">
+        <v>83</v>
+      </c>
+      <c r="M84">
+        <v>3</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>3</v>
+      </c>
+      <c r="AB84">
+        <v>83</v>
+      </c>
+      <c r="AC84">
+        <v>3</v>
+      </c>
+      <c r="AD84">
+        <v>3</v>
+      </c>
+      <c r="AE84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L85">
+        <v>84</v>
+      </c>
+      <c r="M85">
+        <v>3</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>2</v>
+      </c>
+      <c r="AB85">
+        <v>84</v>
+      </c>
+      <c r="AC85">
+        <v>3</v>
+      </c>
+      <c r="AD85">
+        <v>2</v>
+      </c>
+      <c r="AE85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L86">
+        <v>85</v>
+      </c>
+      <c r="M86">
+        <v>3</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>3</v>
+      </c>
+      <c r="AB86">
+        <v>85</v>
+      </c>
+      <c r="AC86">
+        <v>3</v>
+      </c>
+      <c r="AD86">
+        <v>3</v>
+      </c>
+      <c r="AE86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L87">
+        <v>86</v>
+      </c>
+      <c r="M87">
+        <v>3</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="AB87">
+        <v>86</v>
+      </c>
+      <c r="AC87">
+        <v>3</v>
+      </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
+      <c r="AE87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L88">
+        <v>87</v>
+      </c>
+      <c r="M88">
+        <v>3</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="AB88">
+        <v>87</v>
+      </c>
+      <c r="AC88">
+        <v>3</v>
+      </c>
+      <c r="AD88">
+        <v>1</v>
+      </c>
+      <c r="AE88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L89">
+        <v>88</v>
+      </c>
+      <c r="M89">
+        <v>3</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="AB89">
+        <v>88</v>
+      </c>
+      <c r="AC89">
+        <v>3</v>
+      </c>
+      <c r="AD89">
+        <v>0</v>
+      </c>
+      <c r="AE89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L90">
+        <v>89</v>
+      </c>
+      <c r="M90">
+        <v>3</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>3</v>
+      </c>
+      <c r="AB90">
+        <v>89</v>
+      </c>
+      <c r="AC90">
+        <v>3</v>
+      </c>
+      <c r="AD90">
+        <v>3</v>
+      </c>
+      <c r="AE90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L91">
+        <v>90</v>
+      </c>
+      <c r="M91">
+        <v>3</v>
+      </c>
+      <c r="N91">
+        <v>3</v>
+      </c>
+      <c r="O91">
+        <v>3</v>
+      </c>
+      <c r="AB91">
+        <v>90</v>
+      </c>
+      <c r="AC91">
+        <v>3</v>
+      </c>
+      <c r="AD91">
+        <v>3</v>
+      </c>
+      <c r="AE91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L92">
+        <v>91</v>
+      </c>
+      <c r="M92">
+        <v>3</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>3</v>
+      </c>
+      <c r="AB92">
+        <v>91</v>
+      </c>
+      <c r="AC92">
+        <v>3</v>
+      </c>
+      <c r="AD92">
+        <v>3</v>
+      </c>
+      <c r="AE92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L93">
+        <v>92</v>
+      </c>
+      <c r="M93">
+        <v>3</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>3</v>
+      </c>
+      <c r="AB93">
+        <v>92</v>
+      </c>
+      <c r="AC93">
+        <v>3</v>
+      </c>
+      <c r="AD93">
+        <v>3</v>
+      </c>
+      <c r="AE93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L94">
+        <v>93</v>
+      </c>
+      <c r="M94">
+        <v>3</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>2</v>
+      </c>
+      <c r="AB94">
+        <v>93</v>
+      </c>
+      <c r="AC94">
+        <v>3</v>
+      </c>
+      <c r="AD94">
+        <v>2</v>
+      </c>
+      <c r="AE94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L95">
+        <v>94</v>
+      </c>
+      <c r="M95">
+        <v>3</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>1</v>
+      </c>
+      <c r="AB95">
+        <v>94</v>
+      </c>
+      <c r="AC95">
+        <v>3</v>
+      </c>
+      <c r="AD95">
+        <v>1</v>
+      </c>
+      <c r="AE95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L96">
+        <v>95</v>
+      </c>
+      <c r="M96">
+        <v>3</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <v>1</v>
+      </c>
+      <c r="AB96">
+        <v>95</v>
+      </c>
+      <c r="AC96">
+        <v>3</v>
+      </c>
+      <c r="AD96">
+        <v>1</v>
+      </c>
+      <c r="AE96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L97">
+        <v>96</v>
+      </c>
+      <c r="M97">
+        <v>3</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="AB97">
+        <v>96</v>
+      </c>
+      <c r="AC97">
+        <v>3</v>
+      </c>
+      <c r="AD97">
+        <v>0</v>
+      </c>
+      <c r="AE97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L98">
+        <v>97</v>
+      </c>
+      <c r="M98">
+        <v>3</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>3</v>
+      </c>
+      <c r="AB98">
+        <v>97</v>
+      </c>
+      <c r="AC98">
+        <v>3</v>
+      </c>
+      <c r="AD98">
+        <v>3</v>
+      </c>
+      <c r="AE98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L99">
+        <v>98</v>
+      </c>
+      <c r="M99">
+        <v>3</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99">
+        <v>3</v>
+      </c>
+      <c r="AB99">
+        <v>98</v>
+      </c>
+      <c r="AC99">
+        <v>3</v>
+      </c>
+      <c r="AD99">
+        <v>3</v>
+      </c>
+      <c r="AE99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L100">
+        <v>99</v>
+      </c>
+      <c r="M100">
+        <v>3</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <v>1</v>
+      </c>
+      <c r="AB100">
+        <v>99</v>
+      </c>
+      <c r="AC100">
+        <v>3</v>
+      </c>
+      <c r="AD100">
+        <v>1</v>
+      </c>
+      <c r="AE100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L101">
+        <v>100</v>
+      </c>
+      <c r="M101">
+        <v>3</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>2</v>
+      </c>
+      <c r="AB101">
+        <v>100</v>
+      </c>
+      <c r="AC101">
+        <v>3</v>
+      </c>
+      <c r="AD101">
+        <v>2</v>
+      </c>
+      <c r="AE101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L102">
+        <v>101</v>
+      </c>
+      <c r="M102">
+        <v>3</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <v>3</v>
+      </c>
+      <c r="AB102">
+        <v>101</v>
+      </c>
+      <c r="AC102">
+        <v>3</v>
+      </c>
+      <c r="AD102">
+        <v>3</v>
+      </c>
+      <c r="AE102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L103">
+        <v>102</v>
+      </c>
+      <c r="M103">
+        <v>3</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+      <c r="O103">
+        <v>2</v>
+      </c>
+      <c r="AB103">
+        <v>102</v>
+      </c>
+      <c r="AC103">
+        <v>3</v>
+      </c>
+      <c r="AD103">
+        <v>2</v>
+      </c>
+      <c r="AE103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L104">
+        <v>103</v>
+      </c>
+      <c r="M104">
+        <v>3</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <v>0</v>
+      </c>
+      <c r="AB104">
+        <v>103</v>
+      </c>
+      <c r="AC104">
+        <v>3</v>
+      </c>
+      <c r="AD104">
+        <v>0</v>
+      </c>
+      <c r="AE104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L105">
+        <v>104</v>
+      </c>
+      <c r="M105">
+        <v>3</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+      <c r="AB105">
+        <v>104</v>
+      </c>
+      <c r="AC105">
+        <v>3</v>
+      </c>
+      <c r="AD105">
+        <v>0</v>
+      </c>
+      <c r="AE105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L106">
+        <v>105</v>
+      </c>
+      <c r="M106">
+        <v>3</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
+      <c r="AB106">
+        <v>105</v>
+      </c>
+      <c r="AC106">
+        <v>3</v>
+      </c>
+      <c r="AD106">
+        <v>0</v>
+      </c>
+      <c r="AE106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L107">
+        <v>106</v>
+      </c>
+      <c r="M107">
+        <v>3</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>1</v>
+      </c>
+      <c r="AB107">
+        <v>106</v>
+      </c>
+      <c r="AC107">
+        <v>3</v>
+      </c>
+      <c r="AD107">
+        <v>1</v>
+      </c>
+      <c r="AE107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L108">
+        <v>107</v>
+      </c>
+      <c r="M108">
+        <v>3</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108">
+        <v>3</v>
+      </c>
+      <c r="AB108">
+        <v>107</v>
+      </c>
+      <c r="AC108">
+        <v>3</v>
+      </c>
+      <c r="AD108">
+        <v>3</v>
+      </c>
+      <c r="AE108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L109">
+        <v>108</v>
+      </c>
+      <c r="M109">
+        <v>3</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+      <c r="AB109">
+        <v>108</v>
+      </c>
+      <c r="AC109">
+        <v>3</v>
+      </c>
+      <c r="AD109">
+        <v>0</v>
+      </c>
+      <c r="AE109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L110">
+        <v>109</v>
+      </c>
+      <c r="M110">
+        <v>3</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <v>2</v>
+      </c>
+      <c r="AB110">
+        <v>109</v>
+      </c>
+      <c r="AC110">
+        <v>3</v>
+      </c>
+      <c r="AD110">
+        <v>2</v>
+      </c>
+      <c r="AE110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L111">
+        <v>110</v>
+      </c>
+      <c r="M111">
+        <v>3</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111">
+        <v>3</v>
+      </c>
+      <c r="AB111">
+        <v>110</v>
+      </c>
+      <c r="AC111">
+        <v>3</v>
+      </c>
+      <c r="AD111">
+        <v>3</v>
+      </c>
+      <c r="AE111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L112">
+        <v>111</v>
+      </c>
+      <c r="M112">
+        <v>3</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112">
+        <v>0</v>
+      </c>
+      <c r="AB112">
+        <v>111</v>
+      </c>
+      <c r="AC112">
+        <v>3</v>
+      </c>
+      <c r="AD112">
+        <v>0</v>
+      </c>
+      <c r="AE112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L113">
+        <v>112</v>
+      </c>
+      <c r="M113">
+        <v>3</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="O113">
+        <v>2</v>
+      </c>
+      <c r="AB113">
+        <v>112</v>
+      </c>
+      <c r="AC113">
+        <v>3</v>
+      </c>
+      <c r="AD113">
+        <v>2</v>
+      </c>
+      <c r="AE113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L114">
+        <v>113</v>
+      </c>
+      <c r="M114">
+        <v>3</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
+      <c r="AB114">
+        <v>113</v>
+      </c>
+      <c r="AC114">
+        <v>3</v>
+      </c>
+      <c r="AD114">
+        <v>0</v>
+      </c>
+      <c r="AE114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L115">
+        <v>114</v>
+      </c>
+      <c r="M115">
+        <v>6</v>
+      </c>
+      <c r="N115">
+        <v>3</v>
+      </c>
+      <c r="O115">
+        <v>6</v>
+      </c>
+      <c r="AB115">
+        <v>114</v>
+      </c>
+      <c r="AC115">
+        <v>6</v>
+      </c>
+      <c r="AD115">
+        <v>6</v>
+      </c>
+      <c r="AE115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L116">
+        <v>115</v>
+      </c>
+      <c r="M116">
+        <v>3</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="O116">
+        <v>5</v>
+      </c>
+      <c r="AB116">
+        <v>115</v>
+      </c>
+      <c r="AC116">
+        <v>3</v>
+      </c>
+      <c r="AD116">
+        <v>5</v>
+      </c>
+      <c r="AE116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L117">
+        <v>116</v>
+      </c>
+      <c r="M117">
+        <v>3</v>
+      </c>
+      <c r="N117">
+        <v>3</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
+      <c r="AB117">
+        <v>116</v>
+      </c>
+      <c r="AC117">
+        <v>3</v>
+      </c>
+      <c r="AD117">
+        <v>3</v>
+      </c>
+      <c r="AE117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L118">
+        <v>117</v>
+      </c>
+      <c r="M118">
+        <v>3</v>
+      </c>
+      <c r="N118">
+        <v>3</v>
+      </c>
+      <c r="O118">
+        <v>0</v>
+      </c>
+      <c r="AB118">
+        <v>117</v>
+      </c>
+      <c r="AC118">
+        <v>3</v>
+      </c>
+      <c r="AD118">
+        <v>3</v>
+      </c>
+      <c r="AE118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L119">
+        <v>118</v>
+      </c>
+      <c r="M119">
+        <v>3</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119">
+        <v>3</v>
+      </c>
+      <c r="AB119">
+        <v>118</v>
+      </c>
+      <c r="AC119">
+        <v>3</v>
+      </c>
+      <c r="AD119">
+        <v>3</v>
+      </c>
+      <c r="AE119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L120">
+        <v>119</v>
+      </c>
+      <c r="M120">
+        <v>3</v>
+      </c>
+      <c r="N120">
+        <v>3</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
+      <c r="AB120">
+        <v>119</v>
+      </c>
+      <c r="AC120">
+        <v>3</v>
+      </c>
+      <c r="AD120">
+        <v>3</v>
+      </c>
+      <c r="AE120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L121">
+        <v>120</v>
+      </c>
+      <c r="M121">
+        <v>3</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121">
+        <v>0</v>
+      </c>
+      <c r="AB121">
+        <v>120</v>
+      </c>
+      <c r="AC121">
+        <v>3</v>
+      </c>
+      <c r="AD121">
+        <v>0</v>
+      </c>
+      <c r="AE121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L122">
+        <v>121</v>
+      </c>
+      <c r="M122">
+        <v>3</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122">
+        <v>0</v>
+      </c>
+      <c r="AB122">
+        <v>121</v>
+      </c>
+      <c r="AC122">
+        <v>3</v>
+      </c>
+      <c r="AD122">
+        <v>0</v>
+      </c>
+      <c r="AE122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L123">
+        <v>122</v>
+      </c>
+      <c r="M123">
+        <v>3</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+      <c r="O123">
+        <v>3</v>
+      </c>
+      <c r="AB123">
+        <v>122</v>
+      </c>
+      <c r="AC123">
+        <v>3</v>
+      </c>
+      <c r="AD123">
+        <v>3</v>
+      </c>
+      <c r="AE123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L124">
+        <v>123</v>
+      </c>
+      <c r="M124">
+        <v>3</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+      <c r="O124">
+        <v>3</v>
+      </c>
+      <c r="AB124">
+        <v>123</v>
+      </c>
+      <c r="AC124">
+        <v>3</v>
+      </c>
+      <c r="AD124">
+        <v>0</v>
+      </c>
+      <c r="AE124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L125">
+        <v>124</v>
+      </c>
+      <c r="M125">
+        <v>3</v>
+      </c>
+      <c r="N125">
+        <v>3</v>
+      </c>
+      <c r="O125">
+        <v>0</v>
+      </c>
+      <c r="AB125">
+        <v>124</v>
+      </c>
+      <c r="AC125">
+        <v>3</v>
+      </c>
+      <c r="AD125">
+        <v>3</v>
+      </c>
+      <c r="AE125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L126">
+        <v>125</v>
+      </c>
+      <c r="M126">
+        <v>3</v>
+      </c>
+      <c r="N126">
+        <v>3</v>
+      </c>
+      <c r="O126">
+        <v>0</v>
+      </c>
+      <c r="AB126">
+        <v>125</v>
+      </c>
+      <c r="AC126">
+        <v>3</v>
+      </c>
+      <c r="AD126">
+        <v>3</v>
+      </c>
+      <c r="AE126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L127">
+        <v>126</v>
+      </c>
+      <c r="M127">
+        <v>3</v>
+      </c>
+      <c r="N127">
+        <v>1</v>
+      </c>
+      <c r="O127">
+        <v>3</v>
+      </c>
+      <c r="AB127">
+        <v>126</v>
+      </c>
+      <c r="AC127">
+        <v>3</v>
+      </c>
+      <c r="AD127">
+        <v>3</v>
+      </c>
+      <c r="AE127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L128">
+        <v>127</v>
+      </c>
+      <c r="M128">
+        <v>3</v>
+      </c>
+      <c r="N128">
+        <v>3</v>
+      </c>
+      <c r="O128">
+        <v>0</v>
+      </c>
+      <c r="AB128">
+        <v>127</v>
+      </c>
+      <c r="AC128">
+        <v>3</v>
+      </c>
+      <c r="AD128">
+        <v>3</v>
+      </c>
+      <c r="AE128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L129">
+        <v>128</v>
+      </c>
+      <c r="M129">
+        <v>3</v>
+      </c>
+      <c r="N129">
+        <v>2</v>
+      </c>
+      <c r="O129">
+        <v>3</v>
+      </c>
+      <c r="AB129">
+        <v>128</v>
+      </c>
+      <c r="AC129">
+        <v>3</v>
+      </c>
+      <c r="AD129">
+        <v>3</v>
+      </c>
+      <c r="AE129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L130">
+        <v>129</v>
+      </c>
+      <c r="M130">
+        <v>3</v>
+      </c>
+      <c r="N130">
+        <v>2</v>
+      </c>
+      <c r="O130">
+        <v>2</v>
+      </c>
+      <c r="AB130">
+        <v>129</v>
+      </c>
+      <c r="AC130">
+        <v>3</v>
+      </c>
+      <c r="AD130">
+        <v>2</v>
+      </c>
+      <c r="AE130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L131">
+        <v>130</v>
+      </c>
+      <c r="M131">
+        <v>3</v>
+      </c>
+      <c r="N131">
+        <v>1</v>
+      </c>
+      <c r="O131">
+        <v>4</v>
+      </c>
+      <c r="AB131">
+        <v>130</v>
+      </c>
+      <c r="AC131">
+        <v>3</v>
+      </c>
+      <c r="AD131">
+        <v>3</v>
+      </c>
+      <c r="AE131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L132">
+        <v>131</v>
+      </c>
+      <c r="M132">
+        <v>3</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+      <c r="O132">
+        <v>0</v>
+      </c>
+      <c r="AB132">
+        <v>131</v>
+      </c>
+      <c r="AC132">
+        <v>3</v>
+      </c>
+      <c r="AD132">
+        <v>0</v>
+      </c>
+      <c r="AE132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L133">
+        <v>132</v>
+      </c>
+      <c r="M133">
+        <v>3</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+      <c r="O133">
+        <v>1</v>
+      </c>
+      <c r="AB133">
+        <v>132</v>
+      </c>
+      <c r="AC133">
+        <v>3</v>
+      </c>
+      <c r="AD133">
+        <v>0</v>
+      </c>
+      <c r="AE133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L134">
+        <v>133</v>
+      </c>
+      <c r="M134">
+        <v>3</v>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+      <c r="O134">
+        <v>0</v>
+      </c>
+      <c r="AB134">
+        <v>133</v>
+      </c>
+      <c r="AC134">
+        <v>3</v>
+      </c>
+      <c r="AD134">
+        <v>0</v>
+      </c>
+      <c r="AE134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L135">
+        <v>134</v>
+      </c>
+      <c r="M135">
+        <v>3</v>
+      </c>
+      <c r="N135">
+        <v>0</v>
+      </c>
+      <c r="O135">
+        <v>1</v>
+      </c>
+      <c r="AB135">
+        <v>134</v>
+      </c>
+      <c r="AC135">
+        <v>3</v>
+      </c>
+      <c r="AD135">
+        <v>1</v>
+      </c>
+      <c r="AE135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L136">
+        <v>135</v>
+      </c>
+      <c r="M136">
+        <v>3</v>
+      </c>
+      <c r="N136">
+        <v>1</v>
+      </c>
+      <c r="O136">
+        <v>0</v>
+      </c>
+      <c r="AB136">
+        <v>135</v>
+      </c>
+      <c r="AC136">
+        <v>3</v>
+      </c>
+      <c r="AD136">
+        <v>1</v>
+      </c>
+      <c r="AE136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L137">
+        <v>136</v>
+      </c>
+      <c r="M137">
+        <v>3</v>
+      </c>
+      <c r="N137">
+        <v>1</v>
+      </c>
+      <c r="O137">
+        <v>0</v>
+      </c>
+      <c r="AB137">
+        <v>136</v>
+      </c>
+      <c r="AC137">
+        <v>3</v>
+      </c>
+      <c r="AD137">
+        <v>1</v>
+      </c>
+      <c r="AE137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L138">
+        <v>137</v>
+      </c>
+      <c r="M138">
+        <v>3</v>
+      </c>
+      <c r="N138">
+        <v>1</v>
+      </c>
+      <c r="O138">
+        <v>0</v>
+      </c>
+      <c r="AB138">
+        <v>137</v>
+      </c>
+      <c r="AC138">
+        <v>3</v>
+      </c>
+      <c r="AD138">
+        <v>1</v>
+      </c>
+      <c r="AE138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L139">
+        <v>138</v>
+      </c>
+      <c r="M139">
+        <v>3</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+      <c r="O139">
+        <v>0</v>
+      </c>
+      <c r="AB139">
+        <v>138</v>
+      </c>
+      <c r="AC139">
+        <v>3</v>
+      </c>
+      <c r="AD139">
+        <v>0</v>
+      </c>
+      <c r="AE139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L140">
+        <v>139</v>
+      </c>
+      <c r="M140">
+        <v>3</v>
+      </c>
+      <c r="N140">
+        <v>0</v>
+      </c>
+      <c r="O140">
+        <v>0</v>
+      </c>
+      <c r="AB140">
+        <v>139</v>
+      </c>
+      <c r="AC140">
+        <v>3</v>
+      </c>
+      <c r="AD140">
+        <v>0</v>
+      </c>
+      <c r="AE140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L141">
+        <v>140</v>
+      </c>
+      <c r="M141">
+        <v>3</v>
+      </c>
+      <c r="N141">
+        <v>0</v>
+      </c>
+      <c r="O141">
+        <v>0</v>
+      </c>
+      <c r="AB141">
+        <v>140</v>
+      </c>
+      <c r="AC141">
+        <v>3</v>
+      </c>
+      <c r="AD141">
+        <v>0</v>
+      </c>
+      <c r="AE141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L142">
+        <v>141</v>
+      </c>
+      <c r="M142">
+        <v>3</v>
+      </c>
+      <c r="N142">
+        <v>0</v>
+      </c>
+      <c r="O142">
+        <v>0</v>
+      </c>
+      <c r="AB142">
+        <v>141</v>
+      </c>
+      <c r="AC142">
+        <v>3</v>
+      </c>
+      <c r="AD142">
+        <v>0</v>
+      </c>
+      <c r="AE142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L143">
+        <v>142</v>
+      </c>
+      <c r="M143">
+        <v>3</v>
+      </c>
+      <c r="N143">
+        <v>0</v>
+      </c>
+      <c r="O143">
+        <v>0</v>
+      </c>
+      <c r="AB143">
+        <v>142</v>
+      </c>
+      <c r="AC143">
+        <v>3</v>
+      </c>
+      <c r="AD143">
+        <v>0</v>
+      </c>
+      <c r="AE143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L144">
+        <v>143</v>
+      </c>
+      <c r="M144">
+        <v>3</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+      <c r="O144">
+        <v>0</v>
+      </c>
+      <c r="AB144">
+        <v>143</v>
+      </c>
+      <c r="AC144">
+        <v>3</v>
+      </c>
+      <c r="AD144">
+        <v>0</v>
+      </c>
+      <c r="AE144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L145">
+        <v>144</v>
+      </c>
+      <c r="M145">
+        <v>3</v>
+      </c>
+      <c r="N145">
+        <v>3</v>
+      </c>
+      <c r="O145">
+        <v>0</v>
+      </c>
+      <c r="AB145">
+        <v>144</v>
+      </c>
+      <c r="AC145">
+        <v>3</v>
+      </c>
+      <c r="AD145">
+        <v>3</v>
+      </c>
+      <c r="AE145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L146">
+        <v>145</v>
+      </c>
+      <c r="M146">
+        <v>3</v>
+      </c>
+      <c r="N146">
+        <v>2</v>
+      </c>
+      <c r="O146">
+        <v>3</v>
+      </c>
+      <c r="AB146">
+        <v>145</v>
+      </c>
+      <c r="AC146">
+        <v>3</v>
+      </c>
+      <c r="AD146">
+        <v>3</v>
+      </c>
+      <c r="AE146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L147">
+        <v>146</v>
+      </c>
+      <c r="M147">
+        <v>3</v>
+      </c>
+      <c r="N147">
+        <v>0</v>
+      </c>
+      <c r="O147">
+        <v>0</v>
+      </c>
+      <c r="AB147">
+        <v>146</v>
+      </c>
+      <c r="AC147">
+        <v>3</v>
+      </c>
+      <c r="AD147">
+        <v>0</v>
+      </c>
+      <c r="AE147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L148">
+        <v>147</v>
+      </c>
+      <c r="M148">
+        <v>3</v>
+      </c>
+      <c r="N148">
+        <v>0</v>
+      </c>
+      <c r="O148">
+        <v>0</v>
+      </c>
+      <c r="AB148">
+        <v>147</v>
+      </c>
+      <c r="AC148">
+        <v>3</v>
+      </c>
+      <c r="AD148">
+        <v>0</v>
+      </c>
+      <c r="AE148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L149">
+        <v>148</v>
+      </c>
+      <c r="M149">
+        <v>3</v>
+      </c>
+      <c r="N149">
+        <v>0</v>
+      </c>
+      <c r="O149">
+        <v>0</v>
+      </c>
+      <c r="AB149">
+        <v>148</v>
+      </c>
+      <c r="AC149">
+        <v>3</v>
+      </c>
+      <c r="AD149">
+        <v>0</v>
+      </c>
+      <c r="AE149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L150">
+        <v>149</v>
+      </c>
+      <c r="M150">
+        <v>3</v>
+      </c>
+      <c r="N150">
+        <v>3</v>
+      </c>
+      <c r="O150">
+        <v>3</v>
+      </c>
+      <c r="AB150">
+        <v>149</v>
+      </c>
+      <c r="AC150">
+        <v>3</v>
+      </c>
+      <c r="AD150">
+        <v>3</v>
+      </c>
+      <c r="AE150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L151">
+        <v>150</v>
+      </c>
+      <c r="M151">
+        <v>3</v>
+      </c>
+      <c r="N151">
+        <v>3</v>
+      </c>
+      <c r="O151">
+        <v>1</v>
+      </c>
+      <c r="AB151">
+        <v>150</v>
+      </c>
+      <c r="AC151">
+        <v>3</v>
+      </c>
+      <c r="AD151">
+        <v>3</v>
+      </c>
+      <c r="AE151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L153" t="s">
+        <v>3</v>
+      </c>
+      <c r="M153">
+        <f>SUM(M2:M151)</f>
+        <v>483</v>
+      </c>
+      <c r="N153">
+        <f t="shared" ref="N153:O153" si="4">SUM(N2:N151)</f>
+        <v>146</v>
+      </c>
+      <c r="O153">
+        <f t="shared" si="4"/>
+        <v>162</v>
+      </c>
+      <c r="AB153" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC153">
+        <f>SUM(AC2:AC151)</f>
+        <v>483</v>
+      </c>
+      <c r="AD153">
+        <f t="shared" ref="AD153:AE153" si="5">SUM(AD2:AD151)</f>
+        <v>267</v>
+      </c>
+      <c r="AE153">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="154" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L154" t="s">
+        <v>7</v>
+      </c>
+      <c r="M154">
+        <f>N153+O153</f>
+        <v>308</v>
+      </c>
+      <c r="AB154" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC154">
+        <f>AD153+AE153</f>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="155" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L155" t="s">
+        <v>6</v>
+      </c>
+      <c r="M155">
+        <f>N153/M154</f>
+        <v>0.47402597402597402</v>
+      </c>
+      <c r="AB155" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC155">
+        <f>AD153/AC154</f>
+        <v>0.956989247311828</v>
+      </c>
+    </row>
+    <row r="156" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L156" t="s">
+        <v>8</v>
+      </c>
+      <c r="M156">
+        <f>N153/M153</f>
+        <v>0.3022774327122153</v>
+      </c>
+      <c r="AB156" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC156">
+        <f>AD153/AC153</f>
+        <v>0.55279503105590067</v>
       </c>
     </row>
   </sheetData>
